--- a/biology/Botanique/Square_Diderot/Square_Diderot.xlsx
+++ b/biology/Botanique/Square_Diderot/Square_Diderot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Diderot est un parc urbain au sud de Saint-Denis, dans le quartier de La Plaine Saint-Denis.
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une superficie de 1,4 hectare, il est le plus ancien square de la Plaine. Au cœur de la ZAC Nozal-Front Populaire, il a été rénové en 2014[1],[2].
-Durant l'hiver 2022-2023, 13 platanes centenaires sont abattus en raison de leur état sanitaire et remplacés par des nouvelles plantations[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une superficie de 1,4 hectare, il est le plus ancien square de la Plaine. Au cœur de la ZAC Nozal-Front Populaire, il a été rénové en 2014,.
+Durant l'hiver 2022-2023, 13 platanes centenaires sont abattus en raison de leur état sanitaire et remplacés par des nouvelles plantations,.
 Le parc est bordé par la rue Jamin, la rue Saint-Just et la rue Chaudron. Il jouxte le théâtre de la Belle-Étoile.
 </t>
         </is>
@@ -547,9 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horaires d'ouverture
-Transports en commun
-Le square est desservi par la ligne 12 du métro à la station Front populaire.
+          <t>Transports en commun</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est desservi par la ligne 12 du métro à la station Front populaire.
 </t>
         </is>
       </c>
